--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
@@ -446,12 +446,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
@@ -499,46 +499,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123 Maple Street</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Beverly Hills</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>sophia.jameson@example.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Liam</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+1 (310) 555-0199</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>90210</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,132 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15 only address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15 only city</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15 only first</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15 only last</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f03 address</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03 city</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f03 first</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f03 last</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>030303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15 address</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15 HCM city</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15 silicon first</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15 silicon last</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>151515</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -750,6 +750,216 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>address {{address}}</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>f4 address</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>first f4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>last f4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{{pin}}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{{in_aadhaar}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>f1 adrress</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01 city</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f1 first</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f1 last</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{{phone}}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{{date_time}}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{{date_time}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ddaddress</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dd city</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ddirst</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HCM city</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>039494944</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{{credit_debit_cvv}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H C M City </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>firsst</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +960,342 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HCM city</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>039494944</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{{credit_debit_cvv}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H C M City </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>firsst</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ddaddress</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dd city</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ddirst</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 address</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15 HCM city</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15 silicon first</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15 silicon last</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>151515</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15 only address</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15 only city</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15 only first</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15 only last</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>f1 adrress</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01 city</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f1 first</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f1 last</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{{phone}}</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{{date_time}}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{{date_time}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>f03 address</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>03 city</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f03 first</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f03 last</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>030303</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>address {{address}}</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>f4 address</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>first f4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>last f4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{{pin}}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{{in_aadhaar}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
